--- a/data/DataSheet.xlsx
+++ b/data/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12525" windowHeight="3300"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -392,7 +393,7 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
